--- a/poker_data.xlsx
+++ b/poker_data.xlsx
@@ -102,8 +102,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -111,6 +114,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -424,12 +430,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -439,7 +445,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -453,1322 +459,1322 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0.93</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
         <v>-0.31</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>-0.31</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>-0.31</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>-1</v>
       </c>
-      <c r="B3" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="B3" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
         <v>2.1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="B4" s="3">
         <v>-3.2</v>
       </c>
-      <c r="C4" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="C4" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>4.7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>0.3</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
         <v>-0.15</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>-0.15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="A6" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="D6" s="3">
         <v>3.3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>-1.7</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>-1.2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>2.2</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>-0.8</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>-0.3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>-0.3</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
         <v>-0.8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>-0.7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>-2.2</v>
       </c>
-      <c r="D8" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="D8" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="A9" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>0.2</v>
       </c>
-      <c r="D9" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="D9" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="F9" s="3">
         <v>-0.1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="B10" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="A10" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="C10" s="3">
         <v>1.95</v>
       </c>
-      <c r="D10" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="E10" s="3">
         <v>-0.3</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>-0.55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>-0.15</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>-0.15</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>0.85</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>-0.15</v>
       </c>
-      <c r="E11" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E11" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="F11" s="3">
         <v>-0.2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>-0.7</v>
       </c>
-      <c r="B12" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="C12" s="3">
         <v>-0.7</v>
       </c>
-      <c r="D12" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="E12" s="3">
         <v>1.7</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>-0.1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>-0.45</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>1.55</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>-0.45</v>
       </c>
-      <c r="D13" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="D13" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="F13" s="3">
         <v>-0.45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>1.5</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>-0.6</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>-0.6</v>
       </c>
-      <c r="D14" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="D14" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="F14" s="3">
         <v>-0.1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>-0.3</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>-0.3</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>-0.3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>-0.8</v>
       </c>
-      <c r="E15" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="E15" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="F15" s="3">
         <v>1.8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>-2.2</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>3.3</v>
       </c>
-      <c r="C16" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="D16" s="3">
         <v>-4.2</v>
       </c>
-      <c r="E16" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E16" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="F16" s="3">
         <v>3.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="B17" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="A17" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="B17" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="C17" s="3">
         <v>-0.6</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>1.6</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>-1</v>
       </c>
-      <c r="B18" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="C18" s="3">
         <v>1.2</v>
       </c>
-      <c r="D18" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="D18" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>2.5</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>-1.2</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>-1.2</v>
       </c>
-      <c r="D19" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="D19" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="A20" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="B20" s="3">
         <v>0.7</v>
       </c>
-      <c r="C20" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="C20" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="B21" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="A21" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="B21" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="C21" s="4">
         <v>-1</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>1.2</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="B22" s="2">
+      <c r="A22" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="B22" s="3">
         <v>-1.1</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>1.5</v>
       </c>
-      <c r="D22" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="D22" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>-0.4</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>0.7</v>
       </c>
-      <c r="C23" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="D23" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="C23" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>-0.4</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>-0.4</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>1.9</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>-1.1</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="A25" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="B25" s="3">
         <v>1.4</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <v>-1.2</v>
       </c>
-      <c r="D25" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="D25" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="A26" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="B26" s="3">
         <v>1.6</v>
       </c>
-      <c r="C26" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="D26" s="4">
         <v>-1</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>-2</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>3.1</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <v>-1</v>
       </c>
-      <c r="D27" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="D27" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>-0.3</v>
       </c>
-      <c r="B28" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="B28" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="C28" s="4">
         <v>-2</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <v>2.4</v>
       </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="B29" s="2">
+      <c r="A29" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="B29" s="3">
         <v>-0.3</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <v>-2</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="3">
         <v>2.8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="B30" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="A30" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="B30" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="C30" s="3">
         <v>-0.3</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>0.5</v>
       </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>-1.2</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>1.2</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="3">
         <v>-1.2</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="3">
         <v>1.2</v>
       </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>-10</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>-5</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <v>15</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="3">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2">
+      <c r="A33" s="4">
+        <v>0</v>
+      </c>
+      <c r="B33" s="3">
         <v>-4.5</v>
       </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
         <v>4.5</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>-1</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>1.6</v>
       </c>
-      <c r="C34" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="D34" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="C34" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
         <v>-0.2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="B35" s="2">
+      <c r="A35" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="B35" s="3">
         <v>0.6</v>
       </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-0.2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="B36" s="2">
+      <c r="A36" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="B36" s="3">
         <v>-0.8</v>
       </c>
-      <c r="C36" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="C36" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="D36" s="3">
         <v>1.2</v>
       </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>-0.3</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="3">
         <v>2.9</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4">
         <v>-2</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
         <v>-0.3</v>
       </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
         <v>-0.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="B38" s="2">
+      <c r="A38" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="B38" s="3">
         <v>-0.4</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="4">
         <v>3</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <v>-0.4</v>
       </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
         <v>-2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>1.4</v>
       </c>
-      <c r="B39" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
+      <c r="B39" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
         <v>-1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>3</v>
       </c>
-      <c r="B40" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="C40" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="B40" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="C40" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="D40" s="4">
         <v>-1</v>
       </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
         <v>-1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>2.6</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <v>-0.4</v>
       </c>
-      <c r="C41" s="3">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
         <v>-2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>-5</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <v>-0.6</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="3">
         <v>12.3</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="3">
         <v>-1.7</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
         <v>-5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="B43" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="C43" s="2">
+      <c r="A43" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="B43" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="C43" s="3">
         <v>2.1</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="3">
         <v>-1.5</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>-0.2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>-0.8</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="3">
         <v>-3.5</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="3">
         <v>5.3</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="3">
         <v>-0.8</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <v>-0.2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>-1</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="3">
         <v>-1.5</v>
       </c>
-      <c r="C45" s="3">
-        <v>0</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="C45" s="4">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>2.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>1.4</v>
       </c>
-      <c r="B46" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="C46" s="2">
+      <c r="B46" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="C46" s="3">
         <v>-0.6</v>
       </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="2">
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>-0.6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
-      <c r="A47" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="B47" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="C47" s="2">
+      <c r="A47" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="B47" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="C47" s="3">
         <v>-1.5</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="3">
         <v>2.4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>-0.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>-1.5</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <v>-2</v>
       </c>
-      <c r="C48" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="C48" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="D48" s="4">
         <v>-2</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="2">
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>5.7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>-0.7</v>
       </c>
-      <c r="B49" s="3">
-        <v>0</v>
-      </c>
-      <c r="C49" s="3">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
         <v>0.9</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2">
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>-0.2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>-1</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="3">
         <v>13.2</v>
       </c>
-      <c r="C50" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="C50" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="D50" s="4">
         <v>-6</v>
       </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
         <v>-6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>-0.4</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="3">
         <v>-0.4</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="3">
         <v>-0.8</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="3">
         <v>-0.4</v>
       </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3">
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>-0.7</v>
       </c>
-      <c r="B52" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="C52" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="D52" s="2">
+      <c r="B52" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="C52" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="D52" s="3">
         <v>1.8</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="2">
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>-0.7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
-      <c r="A53" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="B53" s="2">
+      <c r="A53" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="B53" s="3">
         <v>5.7</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="3">
         <v>-2.5</v>
       </c>
-      <c r="D53" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="2">
+      <c r="D53" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
         <v>-2.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>-1</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="3">
         <v>-0.4</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="3">
         <v>-3.5</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="3">
         <v>8.4</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="2">
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>-3.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
-      <c r="A55" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="B55" s="2">
+      <c r="A55" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="B55" s="3">
         <v>1.4</v>
       </c>
-      <c r="C55" s="3">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
+      <c r="C55" s="4">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
         <v>-1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
-      <c r="A56" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="B56" s="3">
+      <c r="A56" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="B56" s="4">
         <v>-3</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="4">
         <v>-3</v>
       </c>
-      <c r="D56" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
+      <c r="D56" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
         <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <v>-1</v>
       </c>
-      <c r="B57" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="C57" s="2">
-        <v>-0.1</v>
-      </c>
-      <c r="D57" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="B57" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="C57" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="D57" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
-      <c r="A58" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="B58" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="C58" s="2">
+      <c r="A58" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="B58" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="C58" s="3">
         <v>2.4</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="3">
         <v>-1.4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
-      <c r="A59" s="3">
+      <c r="A59" s="4">
         <v>-2</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="3">
         <v>2.8</v>
       </c>
-      <c r="C59" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="D59" s="2">
+      <c r="C59" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="D59" s="3">
         <v>-0.3</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>-0.4</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="3">
         <v>0.35</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="3">
         <v>0.35</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="3">
         <v>-0.3</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="B61" s="2">
+      <c r="A61" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="B61" s="3">
         <v>-1.5</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="4">
         <v>3</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="4">
         <v>-1</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
-      <c r="A62" s="3">
+      <c r="A62" s="4">
         <v>-1</v>
       </c>
-      <c r="B62" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="C62" s="2">
+      <c r="B62" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="C62" s="3">
         <v>-0.4</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="3">
         <v>1.6</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
-      <c r="A63" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="B63" s="3">
+      <c r="A63" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="B63" s="4">
         <v>-1</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="3">
         <v>1.4</v>
       </c>
-      <c r="D63" s="2">
-        <v>-0.2</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3">
+      <c r="D63" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
-      <c r="A64" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="B64" s="2">
+      <c r="A64" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="B64" s="3">
         <v>10.5</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="4">
         <v>-5</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="4">
         <v>-5</v>
       </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-      <c r="F64" s="3">
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>-0.6</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="3">
         <v>0.9</v>
       </c>
-      <c r="C65" s="3">
-        <v>0</v>
-      </c>
-      <c r="D65" s="2">
+      <c r="C65" s="4">
+        <v>0</v>
+      </c>
+      <c r="D65" s="3">
         <v>-0.3</v>
       </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3">
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
-      <c r="A66" s="3">
+      <c r="A66" s="4">
         <v>3</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="4">
         <v>-3</v>
       </c>
-      <c r="C66" s="3">
-        <v>0</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="C66" s="4">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>-0.4</v>
       </c>
-      <c r="B67" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="C67" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="D67" s="2">
+      <c r="B67" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="C67" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="D67" s="3">
         <v>1.4</v>
       </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-      <c r="F67" s="3">
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
         <v>0</v>
       </c>
     </row>
